--- a/中药学笔记.xlsx
+++ b/中药学笔记.xlsx
@@ -1,23 +1,258 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="笔记" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet6" sheetId="9" r:id="rId2"/>
+    <sheet name="Sheet7" sheetId="10" r:id="rId3"/>
+    <sheet name="Sheet8" sheetId="11" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>味</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦 甘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>味苦，主风寒湿痹，死肌痉疸止汗，除热消食，作煎饵，久服轻身延年，不饥。一名山精，神药经云：必欲长生服山精</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天门冬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>味苦平，主诸暴风湿偏痹，强肾髓，杀三虫去伏尸，久服轻身益气延年。 主去肺湿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生地黄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去湿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凉血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>润肺热</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健脾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白术和附子汤排肌肉里的浓血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神农本草经 第12讲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倪海夏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莬比子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肾益精</t>
+  </si>
+  <si>
+    <t>性功能正常禁吃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛膝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>味苦酸，主寒湿痿痹，四肢拘急，膝痛不可屈伸，逐血气伤热火烂，堕胎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦 酸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨节疼痛</t>
+  </si>
+  <si>
+    <t>益母草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛</t>
+  </si>
+  <si>
+    <t>此药为去瘀生新，通调月经，及产后要药</t>
+  </si>
+  <si>
+    <t>神农本草经 第13讲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微寒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月经不调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉竹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神农本草经 第14讲</t>
+  </si>
+  <si>
+    <t>神农本草经 第13讲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神农本草经 第12讲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肌肉关节痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治风热风湿入肌作痛要药，功能祛风清热，除湿止痛</t>
+  </si>
+  <si>
+    <t>柴胡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柴胡为发表清热要药，功能散三焦肝胆诸经之热邪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肝胆方面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麦门冬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>润肺止渴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麦冬为润肺清火要药，用于肺燥干咳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛 苦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袪风痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独活为风痛要药，主治头痛身痛脚痛，机关不利，风湿诸痹</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,18 +260,55 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -46,19 +318,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -343,37 +629,681 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="108.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/中药学笔记.xlsx
+++ b/中药学笔记.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12705" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="笔记" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="97">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -246,6 +246,155 @@
   </si>
   <si>
     <t>独活为风痛要药，主治头痛身痛脚痛，机关不利，风湿诸痹</t>
+  </si>
+  <si>
+    <t>车前子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利尿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有实热或湿热情况使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行脾胃之气滞，行气散郁。用于寒证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补虚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘入脾，白色入肺。补虚益肺，清肺热</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薏仁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微寒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袪湿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以补虚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泽泻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴虚禁用。入肾经，去旧水，养新水，利小便</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>益智</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远志为强心益智要药，入心经。补心通窍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙胆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大寒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袪湿热</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去中焦肝胆脾胃之湿热</t>
+  </si>
+  <si>
+    <t>细辛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>细辛为风痛要药，功能深入散风袪寒，主治咳逆上气，风湿，痹痛，头痛，齿痛</t>
+  </si>
+  <si>
+    <t>石斛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除热益阴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除热益阴要药，主养脾胃，益心肾</t>
+  </si>
+  <si>
+    <t>能看到的虚是阴虚，看不到的是阳虚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴虚好比硬件能看到，阳虚好比软件看不到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血属阴而气属阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -282,7 +431,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -314,11 +463,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -329,6 +489,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -630,21 +791,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="108.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="108.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -655,19 +816,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -677,17 +841,18 @@
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -697,39 +862,41 @@
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="1"/>
+      <c r="I4" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>22</v>
       </c>
@@ -739,19 +906,20 @@
       <c r="C5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="5"/>
+      <c r="H5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -761,19 +929,20 @@
       <c r="C6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="1"/>
+      <c r="I6" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -783,19 +952,20 @@
       <c r="C7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="1"/>
+      <c r="I7" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -805,19 +975,20 @@
       <c r="C8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="1"/>
+      <c r="I8" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
@@ -827,19 +998,20 @@
       <c r="C9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="1"/>
+      <c r="I9" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>50</v>
       </c>
@@ -849,19 +1021,20 @@
       <c r="C10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="1"/>
+      <c r="I10" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>54</v>
       </c>
@@ -871,109 +1044,233 @@
       <c r="C11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="1"/>
+      <c r="I11" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="I12" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="I13" s="1">
+        <v>14</v>
+      </c>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="I14" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="I15" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="I16" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="I17" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="I18" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="I19" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20" s="1">
+        <v>17</v>
+      </c>
+      <c r="J20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -981,9 +1278,12 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I21" s="1"/>
+      <c r="J21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -992,8 +1292,9 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1002,8 +1303,9 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1012,8 +1314,9 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1022,8 +1325,9 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1032,8 +1336,9 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1042,8 +1347,9 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1052,8 +1358,9 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1062,8 +1369,9 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1072,8 +1380,9 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1082,8 +1391,9 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1092,8 +1402,9 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1102,8 +1413,9 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1112,8 +1424,9 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1122,8 +1435,9 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1132,8 +1446,9 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1142,8 +1457,9 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1152,8 +1468,9 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1162,8 +1479,9 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1172,8 +1490,9 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1182,8 +1501,9 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1192,8 +1512,9 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1202,8 +1523,9 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1212,8 +1534,9 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1222,8 +1545,9 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1232,8 +1556,9 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1242,8 +1567,9 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1252,8 +1578,9 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1262,6 +1589,7 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/中药学笔记.xlsx
+++ b/中药学笔记.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="144">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -394,6 +394,189 @@
   </si>
   <si>
     <t>归类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴戟天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>壮阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补阳药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天麻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神农本草经 第17讲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>息风止痉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗肝风内动，惊痫抽搐。肝阳上亢，头痛眩晕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祛风镇痉要药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵芝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补气安神</t>
+  </si>
+  <si>
+    <t>安神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神农本草经 第18讲</t>
+  </si>
+  <si>
+    <t>青黛</t>
+  </si>
+  <si>
+    <t>咸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清热解毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神农本草经 第18讲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清热解毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清热作用有限，主要解毒，治疗火毒，敷热疮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>川芎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活血止痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活血行气，祛风止痛。治气滞血瘀诸痛证之要药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄连</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清热燥湿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神农本草经 第19讲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大苦大寒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>络石藤</t>
+  </si>
+  <si>
+    <t>辛中带点甘。补肾阳，强筋骨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袪风湿热</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微寒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凉血消肿</t>
+  </si>
+  <si>
+    <t>本品善于祛风通络，苦能燥湿，微寒清热。可消咽喉肿痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清热燥湿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补脾气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄芪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补气药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补益脾气之要药，内补脾胃，外托疮毒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,7 +600,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -427,6 +610,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,7 +673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -490,6 +685,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -793,14 +991,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="108.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="99.25" customWidth="1"/>
     <col min="8" max="8" width="27.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -1271,94 +1469,209 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="A21" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="7">
+        <v>17</v>
+      </c>
       <c r="J21" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="I22" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="I23" s="3" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="I24" s="3" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="A25" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="I26" s="3" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="I27" s="3" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="A28" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>

--- a/中药学笔记.xlsx
+++ b/中药学笔记.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="192">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -577,6 +577,185 @@
   </si>
   <si>
     <t>补益脾气之要药，内补脾胃，外托疮毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉苁蓉</t>
+  </si>
+  <si>
+    <t>甘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>壮阳药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神农本草经 第20讲</t>
+  </si>
+  <si>
+    <t>壮阳要药</t>
+  </si>
+  <si>
+    <t>防风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛 甘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解表药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤风头痛</t>
+  </si>
+  <si>
+    <t>味辛发散祛风解表为主，袪风湿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒲黄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化瘀止血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收敛止血</t>
+  </si>
+  <si>
+    <t>兼有活血行瘀之功，为止血行瘀之良药</t>
+  </si>
+  <si>
+    <t>续断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦 辛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补阳药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补肝肾</t>
+  </si>
+  <si>
+    <t>补肝肾，强健骨，治肝肾亏虚，筋骨不健。 跌扑损伤，筋伤骨折</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神农本草经 第21讲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筋伤骨折</t>
+  </si>
+  <si>
+    <t>漏芦</t>
+  </si>
+  <si>
+    <t>苦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清热解毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能清热解毒、消痈散结，又兼通经下乳之功，故为治乳痈良药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治乳痈</t>
+  </si>
+  <si>
+    <t>营实</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清热解毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疮痈肿毒</t>
+  </si>
+  <si>
+    <t>外用治口疮不错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不在中药学目录中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹤 虱</t>
+  </si>
+  <si>
+    <t>杀虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天名精果实</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>决明子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微寒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清热泻火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清肝明目</t>
+  </si>
+  <si>
+    <t>丹参</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活血调经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月经不调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活血祛瘀，凉血消肿，是治疗血瘀要药</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -584,7 +763,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -598,6 +777,19 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -673,7 +865,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -688,6 +880,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -991,8 +1185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1674,101 +1868,219 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="A29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="I29" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="I30" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="A31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="I31" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="A32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="A33" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="I33" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>178</v>
+      </c>
       <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="A35" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="H35" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="A37" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
@@ -1907,6 +2219,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/中药学笔记.xlsx
+++ b/中药学笔记.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="12705" windowHeight="8010"/>
@@ -12,12 +12,12 @@
     <sheet name="Sheet7" sheetId="10" r:id="rId3"/>
     <sheet name="Sheet8" sheetId="11" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="199">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -756,14 +756,42 @@
   </si>
   <si>
     <t>活血祛瘀，凉血消肿，是治疗血瘀要药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神农本草经 第21讲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茜草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>止血化瘀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凉血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化瘀止血4味药之一</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -897,7 +925,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -971,7 +999,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1006,7 +1033,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1182,14 +1208,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="99.25" customWidth="1"/>
@@ -1197,7 +1223,7 @@
     <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1223,7 +1249,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1244,7 +1270,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1271,7 +1297,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1288,7 +1314,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>22</v>
       </c>
@@ -1311,7 +1337,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -1334,7 +1360,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -1357,7 +1383,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -1380,7 +1406,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
@@ -1403,7 +1429,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>50</v>
       </c>
@@ -1426,7 +1452,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>54</v>
       </c>
@@ -1449,7 +1475,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>59</v>
       </c>
@@ -1472,7 +1498,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>64</v>
       </c>
@@ -1496,7 +1522,7 @@
       </c>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>69</v>
       </c>
@@ -1519,7 +1545,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>72</v>
       </c>
@@ -1542,7 +1568,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>76</v>
       </c>
@@ -1565,7 +1591,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>78</v>
       </c>
@@ -1588,7 +1614,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>82</v>
       </c>
@@ -1611,7 +1637,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>86</v>
       </c>
@@ -1634,7 +1660,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>89</v>
       </c>
@@ -1662,7 +1688,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="7" t="s">
         <v>97</v>
       </c>
@@ -1690,7 +1716,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>100</v>
       </c>
@@ -1715,7 +1741,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>109</v>
       </c>
@@ -1738,7 +1764,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>114</v>
       </c>
@@ -1763,7 +1789,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="9" t="s">
         <v>121</v>
       </c>
@@ -1790,7 +1816,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>125</v>
       </c>
@@ -1815,7 +1841,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>130</v>
       </c>
@@ -1842,7 +1868,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="9" t="s">
         <v>139</v>
       </c>
@@ -1867,7 +1893,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>144</v>
       </c>
@@ -1892,7 +1918,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>150</v>
       </c>
@@ -1917,7 +1943,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>156</v>
       </c>
@@ -1942,7 +1968,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="9" t="s">
         <v>161</v>
       </c>
@@ -1969,7 +1995,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>169</v>
       </c>
@@ -1994,7 +2020,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>175</v>
       </c>
@@ -2017,9 +2043,11 @@
       <c r="H34" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I34" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>181</v>
       </c>
@@ -2038,9 +2066,11 @@
       <c r="H35" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I35" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>184</v>
       </c>
@@ -2059,9 +2089,11 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I36" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>188</v>
       </c>
@@ -2084,18 +2116,32 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
+    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A38" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2106,7 +2152,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2117,7 +2163,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2128,7 +2174,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2139,7 +2185,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2150,7 +2196,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2161,7 +2207,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2172,7 +2218,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2183,7 +2229,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2194,7 +2240,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2205,7 +2251,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2224,12 +2270,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2237,12 +2283,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2250,12 +2296,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/中药学笔记.xlsx
+++ b/中药学笔记.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="12705" windowHeight="8010"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="217">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -784,14 +784,86 @@
   </si>
   <si>
     <t>化瘀止血4味药之一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五味子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收涩药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神农本草经 第22讲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敛肺滋肾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋覆花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五味俱全，唯酸独胜。上能敛肺止咳平喘，下能滋肾涩精止泻，内能生津宁心安神，外能固表收敛止汗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>止咳化痰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>止咳平喘化痰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>止呕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦能降、辛能散、咸能软坚。治胃病，止哎，还能止胸闷打嗝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛇床子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>止痒药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外用止痒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>止阴部痒。主妇人阴中肿痛，男子阴痿湿痒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -909,7 +981,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -925,7 +997,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -999,6 +1071,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1033,6 +1106,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1208,22 +1282,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="99.25" customWidth="1"/>
     <col min="8" max="8" width="27.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1249,7 +1323,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1270,7 +1344,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1297,7 +1371,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1314,7 +1388,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>22</v>
       </c>
@@ -1337,7 +1411,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -1360,7 +1434,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -1383,7 +1457,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -1406,7 +1480,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
@@ -1429,7 +1503,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>50</v>
       </c>
@@ -1452,7 +1526,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>54</v>
       </c>
@@ -1475,7 +1549,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>59</v>
       </c>
@@ -1498,7 +1572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>64</v>
       </c>
@@ -1522,7 +1596,7 @@
       </c>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>69</v>
       </c>
@@ -1545,7 +1619,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>72</v>
       </c>
@@ -1568,7 +1642,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>76</v>
       </c>
@@ -1591,7 +1665,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>78</v>
       </c>
@@ -1614,7 +1688,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>82</v>
       </c>
@@ -1637,7 +1711,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>86</v>
       </c>
@@ -1660,7 +1734,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>89</v>
       </c>
@@ -1688,7 +1762,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
         <v>97</v>
       </c>
@@ -1716,7 +1790,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>100</v>
       </c>
@@ -1741,7 +1815,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>109</v>
       </c>
@@ -1764,7 +1838,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>114</v>
       </c>
@@ -1789,7 +1863,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
         <v>121</v>
       </c>
@@ -1816,7 +1890,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>125</v>
       </c>
@@ -1841,7 +1915,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>130</v>
       </c>
@@ -1868,7 +1942,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
         <v>139</v>
       </c>
@@ -1893,7 +1967,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>144</v>
       </c>
@@ -1918,7 +1992,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>150</v>
       </c>
@@ -1943,7 +2017,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>156</v>
       </c>
@@ -1968,7 +2042,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
         <v>161</v>
       </c>
@@ -1995,7 +2069,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>169</v>
       </c>
@@ -2020,7 +2094,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>175</v>
       </c>
@@ -2047,7 +2121,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>181</v>
       </c>
@@ -2070,7 +2144,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>184</v>
       </c>
@@ -2093,7 +2167,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>188</v>
       </c>
@@ -2114,9 +2188,11 @@
         <v>191</v>
       </c>
       <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I37" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>193</v>
       </c>
@@ -2139,42 +2215,84 @@
         <v>198</v>
       </c>
       <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="I38" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>206</v>
+      </c>
       <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
+      <c r="I39" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+    <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>215</v>
+      </c>
       <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
+      <c r="G41" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="42" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2185,7 +2303,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="43" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2196,7 +2314,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="44" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2207,7 +2325,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="45" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2218,7 +2336,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="46" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2229,7 +2347,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2240,7 +2358,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2251,7 +2369,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="49" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2270,12 +2388,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2283,12 +2401,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2296,12 +2414,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/中药学笔记.xlsx
+++ b/中药学笔记.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="12705" windowHeight="8010"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="242">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -856,14 +856,114 @@
   </si>
   <si>
     <t>止阴部痒。主妇人阴中肿痛，男子阴痿湿痒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地肤子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利水渗湿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利小便</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛 苦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外伤药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸脓拔毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金疮伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微寒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜜蜂、毒物咬伤外用药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茵陈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利湿退黄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治黄胆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙参</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补气虚药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补肺气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清肺热，袪痰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐长卿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袪风湿药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风湿痹痛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -997,7 +1097,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1071,7 +1171,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1106,7 +1205,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1282,14 +1380,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="99.25" customWidth="1"/>
@@ -1297,7 +1395,7 @@
     <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1323,7 +1421,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1344,7 +1442,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1371,7 +1469,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1388,7 +1486,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>22</v>
       </c>
@@ -1411,7 +1509,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -1434,7 +1532,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -1457,7 +1555,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -1480,7 +1578,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
@@ -1503,7 +1601,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>50</v>
       </c>
@@ -1526,7 +1624,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>54</v>
       </c>
@@ -1549,7 +1647,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>59</v>
       </c>
@@ -1572,7 +1670,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>64</v>
       </c>
@@ -1596,7 +1694,7 @@
       </c>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>69</v>
       </c>
@@ -1619,7 +1717,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>72</v>
       </c>
@@ -1642,7 +1740,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>76</v>
       </c>
@@ -1665,7 +1763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>78</v>
       </c>
@@ -1688,7 +1786,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>82</v>
       </c>
@@ -1711,7 +1809,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>86</v>
       </c>
@@ -1734,7 +1832,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>89</v>
       </c>
@@ -1762,7 +1860,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="7" t="s">
         <v>97</v>
       </c>
@@ -1790,7 +1888,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>100</v>
       </c>
@@ -1815,7 +1913,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>109</v>
       </c>
@@ -1838,7 +1936,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>114</v>
       </c>
@@ -1863,7 +1961,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="9" t="s">
         <v>121</v>
       </c>
@@ -1890,7 +1988,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>125</v>
       </c>
@@ -1915,7 +2013,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>130</v>
       </c>
@@ -1942,7 +2040,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="9" t="s">
         <v>139</v>
       </c>
@@ -1967,7 +2065,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>144</v>
       </c>
@@ -1992,7 +2090,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>150</v>
       </c>
@@ -2017,7 +2115,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>156</v>
       </c>
@@ -2042,7 +2140,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="9" t="s">
         <v>161</v>
       </c>
@@ -2069,7 +2167,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>169</v>
       </c>
@@ -2094,7 +2192,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>175</v>
       </c>
@@ -2121,7 +2219,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>181</v>
       </c>
@@ -2144,7 +2242,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>184</v>
       </c>
@@ -2167,7 +2265,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>188</v>
       </c>
@@ -2192,7 +2290,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>193</v>
       </c>
@@ -2219,7 +2317,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>199</v>
       </c>
@@ -2244,7 +2342,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>205</v>
       </c>
@@ -2269,7 +2367,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>212</v>
       </c>
@@ -2292,62 +2390,120 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
+    <row r="42" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A42" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+    <row r="43" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A43" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
+    <row r="44" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A44" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
+    <row r="45" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A45" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>237</v>
+      </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
+    <row r="46" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A46" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>241</v>
+      </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2358,7 +2514,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2369,7 +2525,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2388,12 +2544,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2401,12 +2557,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2414,12 +2570,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/中药学笔记.xlsx
+++ b/中药学笔记.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="12705" windowHeight="8010"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="279">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -743,227 +743,369 @@
     <t>清肝明目</t>
   </si>
   <si>
+    <t>活血调经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月经不调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活血祛瘀，凉血消肿，是治疗血瘀要药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神农本草经 第21讲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茜草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>止血化瘀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凉血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化瘀止血4味药之一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五味子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收涩药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神农本草经 第22讲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敛肺滋肾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋覆花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五味俱全，唯酸独胜。上能敛肺止咳平喘，下能滋肾涩精止泻，内能生津宁心安神，外能固表收敛止汗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>止咳化痰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>止咳平喘化痰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>止呕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦能降、辛能散、咸能软坚。治胃病，止哎，还能止胸闷打嗝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛇床子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>止痒药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外用止痒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>止阴部痒。主妇人阴中肿痛，男子阴痿湿痒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地肤子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利水渗湿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利小便</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛 苦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外伤药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸脓拔毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金疮伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微寒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜜蜂、毒物咬伤外用药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茵陈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利湿退黄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治黄胆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙参</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补气虚药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补肺气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清肺热，袪痰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐长卿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袪风湿药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风湿痹痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神农本草经 第22讲</t>
+  </si>
+  <si>
+    <t>本草经与课本不一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神农本草经 第23讲</t>
+  </si>
+  <si>
+    <t>神农本草经 第23讲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王不留行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活血调经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产后乳汁不下，乳痈肿痛</t>
+  </si>
+  <si>
+    <t>升麻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微寒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解表药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发散风热</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清热解毒，治疮药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡麻子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚筋骨</t>
+  </si>
+  <si>
+    <t>带子的药，都有油性，可以润肠。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课本没有这个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬葵子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利水渗湿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利尿通淋</t>
+  </si>
+  <si>
+    <t>乳汁不通</t>
+  </si>
+  <si>
+    <t>桂枝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风寒感冒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去水湿痰饮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>丹参</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>活血调经</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月经不调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活血祛瘀，凉血消肿，是治疗血瘀要药</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神农本草经 第21讲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>茜草</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>止血化瘀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凉血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>化瘀止血4味药之一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五味子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>酸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收涩药</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神农本草经 第22讲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敛肺滋肾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旋覆花</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五味俱全，唯酸独胜。上能敛肺止咳平喘，下能滋肾涩精止泻，内能生津宁心安神，外能固表收敛止汗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>止咳化痰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>止咳平喘化痰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>止呕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦能降、辛能散、咸能软坚。治胃病，止哎，还能止胸闷打嗝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛇床子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>止痒药</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外用止痒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>止阴部痒。主妇人阴中肿痛，男子阴痿湿痒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地肤子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>利水渗湿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>利小便</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辛 苦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>景天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外伤药</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吸脓拔毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金疮伤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微寒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜜蜂、毒物咬伤外用药</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>茵陈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>利湿退黄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治黄胆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙参</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>补气虚药</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>补肺气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清肺热，袪痰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐长卿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>袪风湿药</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风湿痹痛</t>
+    <t>肉桂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大热</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温里药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补火助阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治寒证，打粉水冲服要生用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神农本草经 第24讲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1097,7 +1239,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1171,6 +1313,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1205,6 +1348,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1380,14 +1524,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="99.25" customWidth="1"/>
@@ -1395,7 +1540,7 @@
     <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1421,7 +1566,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1442,7 +1587,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1469,7 +1614,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1486,7 +1631,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>22</v>
       </c>
@@ -1509,7 +1654,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -1532,7 +1677,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -1555,7 +1700,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -1578,7 +1723,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
@@ -1601,7 +1746,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>50</v>
       </c>
@@ -1624,7 +1769,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>54</v>
       </c>
@@ -1647,7 +1792,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>59</v>
       </c>
@@ -1670,7 +1815,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>64</v>
       </c>
@@ -1694,7 +1839,7 @@
       </c>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>69</v>
       </c>
@@ -1717,7 +1862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>72</v>
       </c>
@@ -1740,7 +1885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>76</v>
       </c>
@@ -1763,7 +1908,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>78</v>
       </c>
@@ -1786,7 +1931,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>82</v>
       </c>
@@ -1809,7 +1954,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>86</v>
       </c>
@@ -1832,7 +1977,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>89</v>
       </c>
@@ -1860,7 +2005,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
         <v>97</v>
       </c>
@@ -1888,7 +2033,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>100</v>
       </c>
@@ -1913,7 +2058,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>109</v>
       </c>
@@ -1936,7 +2081,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>114</v>
       </c>
@@ -1961,7 +2106,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
         <v>121</v>
       </c>
@@ -1988,7 +2133,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>125</v>
       </c>
@@ -2013,7 +2158,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>130</v>
       </c>
@@ -2040,7 +2185,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
         <v>139</v>
       </c>
@@ -2065,7 +2210,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>144</v>
       </c>
@@ -2090,7 +2235,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>150</v>
       </c>
@@ -2115,7 +2260,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>156</v>
       </c>
@@ -2140,7 +2285,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
         <v>161</v>
       </c>
@@ -2167,7 +2312,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>169</v>
       </c>
@@ -2192,7 +2337,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>175</v>
       </c>
@@ -2216,10 +2361,10 @@
         <v>180</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>181</v>
       </c>
@@ -2239,303 +2384,1012 @@
         <v>183</v>
       </c>
       <c r="I35" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="E39" s="1" t="s">
+    </row>
+    <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="H40" s="1"/>
+      <c r="I40" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="B42" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I42" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="G43" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="F44" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I44" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="1" t="s">
+      <c r="B46" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>241</v>
-      </c>
       <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
+      <c r="G46" s="1" t="s">
+        <v>242</v>
+      </c>
       <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
+      <c r="I46" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
+      <c r="G47" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
+      <c r="I47" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>255</v>
+      </c>
       <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
+      <c r="I48" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
+      <c r="E49" s="1" t="s">
+        <v>260</v>
+      </c>
       <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-    </row>
+      <c r="G49" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+    </row>
+    <row r="69" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+    </row>
+    <row r="70" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+    </row>
+    <row r="71" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+    </row>
+    <row r="72" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+    </row>
+    <row r="73" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+    </row>
+    <row r="74" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+    </row>
+    <row r="75" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+    </row>
+    <row r="76" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+    </row>
+    <row r="77" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+    </row>
+    <row r="78" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+    </row>
+    <row r="79" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+    </row>
+    <row r="80" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+    </row>
+    <row r="81" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+    </row>
+    <row r="82" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+    </row>
+    <row r="83" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+    </row>
+    <row r="84" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+    </row>
+    <row r="85" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+    </row>
+    <row r="86" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+    </row>
+    <row r="87" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+    </row>
+    <row r="88" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+    </row>
+    <row r="89" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+    </row>
+    <row r="90" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+    </row>
+    <row r="91" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+    </row>
+    <row r="92" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+    </row>
+    <row r="93" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+    </row>
+    <row r="94" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+    </row>
+    <row r="95" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+    </row>
+    <row r="96" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+    </row>
+    <row r="97" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+    </row>
+    <row r="98" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+    </row>
+    <row r="99" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+    </row>
+    <row r="100" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+    </row>
+    <row r="101" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+    </row>
+    <row r="102" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+    </row>
+    <row r="103" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+    </row>
+    <row r="104" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+    </row>
+    <row r="105" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2544,12 +3398,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2557,12 +3411,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2570,12 +3424,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/中药学笔记.xlsx
+++ b/中药学笔记.xlsx
@@ -1529,7 +1529,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I52" sqref="I52"/>
+      <selection pane="bottomLeft" activeCell="A53" sqref="A53:G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3376,13 +3376,6 @@
       <c r="I103" s="1"/>
     </row>
     <row r="104" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
